--- a/inputs/odias_labels_2d.xlsx
+++ b/inputs/odias_labels_2d.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\Tandem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A99F9C-319B-46A6-88BF-3F168C869699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98A88C-5ADF-4F00-8AFB-F1E46F942A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3465" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26JUL24" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>slpm</t>
+  </si>
+  <si>
+    <t>30 JUL. 24</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983CC5EC-E9D2-4DC0-9DB7-8B73B681DEF8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9CFB8-4FA4-4F6F-9F30-D2297BC0B4F8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +538,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -550,10 +553,10 @@
         <v>0.129</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/inputs/odias_labels_2d.xlsx
+++ b/inputs/odias_labels_2d.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98A88C-5ADF-4F00-8AFB-F1E46F942A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5095A6-A63A-4422-9CB0-4503DB076EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="26JUL24" sheetId="5" r:id="rId1"/>
-    <sheet name="30JUL24" sheetId="6" r:id="rId2"/>
+    <sheet name="21AUG24" sheetId="7" r:id="rId1"/>
+    <sheet name="20AUG24_1" sheetId="8" r:id="rId2"/>
+    <sheet name="30JUL24" sheetId="6" r:id="rId3"/>
+    <sheet name="26JUL24" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +61,12 @@
   </si>
   <si>
     <t>30 JUL. 24</t>
+  </si>
+  <si>
+    <t>21 AUG. 24</t>
+  </si>
+  <si>
+    <t>20 AUG. 24</t>
   </si>
 </sst>
 </file>
@@ -376,6 +384,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F87941-B490-41FA-B3C9-4A2AC74166B6}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>0.129</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210C4BD4-FA31-464B-8DBF-6B0AF5DE2412}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>0.129</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9CFB8-4FA4-4F6F-9F30-D2297BC0B4F8}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>0.129</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983CC5EC-E9D2-4DC0-9DB7-8B73B681DEF8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -498,132 +888,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9CFB8-4FA4-4F6F-9F30-D2297BC0B4F8}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>0.129</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>